--- a/Section 13/aula-solver.xlsx
+++ b/Section 13/aula-solver.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Google Drive\Curso_Excel\12 Ferramentas de análise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Excel\Section 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEA3781-17DD-4436-B76E-0EB86D36D0CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF14E2F7-6D54-4044-AD55-EAFA5ECA630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4430C8C5-1BA6-4289-86B7-BC19EE26AF37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4430C8C5-1BA6-4289-86B7-BC19EE26AF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Solver" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Solver!$C$6:$C$9</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Solver!$C$6:$C$9</definedName>
@@ -29,10 +30,11 @@
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Solver!$B$12</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -40,7 +42,7 @@
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Solver!$E$6:$E$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">número inteiro</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Solver!$F$12:$H$12</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Solver!$F$12:$H$12</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -54,10 +56,21 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -262,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -282,22 +295,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +319,7 @@
     <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,15 +346,15 @@
     <xf numFmtId="4" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,7 +371,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -660,21 +670,21 @@
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="18" width="15.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" customWidth="1"/>
+    <col min="11" max="18" width="15.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" s="4" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
@@ -682,172 +692,192 @@
       <c r="D1" s="25"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="9">
+      <c r="C6" s="14">
+        <v>17100</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.15</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>17100</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>0.01</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>0.02</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="10">
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
         <v>0.25</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>18900</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>0.01</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>0.04</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="10">
+      <c r="C8" s="15">
+        <v>4150</v>
+      </c>
+      <c r="D8" s="9">
         <v>0.35</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>4150</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>0.02</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>0.05</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="11">
+      <c r="C9" s="16">
+        <v>1675</v>
+      </c>
+      <c r="D9" s="10">
         <v>0.4</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>16950</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.03</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>0.06</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>0.09</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="F11" s="24">
+        <f>SUMPRODUCT($C$6:$C$9,F6:F9)</f>
+        <v>304.25</v>
+      </c>
+      <c r="G11" s="24">
+        <f>SUMPRODUCT($C$6:$C$9,G6:G9)</f>
+        <v>650</v>
+      </c>
+      <c r="H11" s="24">
+        <f>SUMPRODUCT($C$6:$C$9,H6:H9)</f>
+        <v>783.25</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23">
+        <f>SUMPRODUCT(C6:C9,D6:D9)</f>
+        <v>4687.5</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>500</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>650</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>800</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
